--- a/PythonResources/Data/Consumption/Sympheny/base_1690_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1690_hea.xlsx
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>28.74856908065374</v>
+        <v>28.74856908065373</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>24.82045002816413</v>
+        <v>24.82045002816412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>41.31422432008985</v>
+        <v>41.31422432008984</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.84630709976314</v>
+        <v>0.8463070997631399</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.5405929764939443</v>
+        <v>0.5405929764939442</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3.715701163667867</v>
+        <v>3.715701163667866</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5.351946079618023</v>
+        <v>5.351946079618022</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>5.088709672692404</v>
+        <v>5.088709672692403</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>24.16039543489105</v>
+        <v>24.16039543489104</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>28.50816290763984</v>
+        <v>28.50816290763983</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>23.2123985461332</v>
+        <v>23.21239854613319</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>47.63986961855633</v>
+        <v>47.63986961855632</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>34.00737718418519</v>
+        <v>34.00737718418518</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>39.00101461193585</v>
+        <v>39.00101461193584</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>44.9447883470266</v>
+        <v>44.94478834702659</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>43.41847437767831</v>
+        <v>43.4184743776783</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>26.77816456642192</v>
+        <v>26.77816456642191</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>29.53423392109708</v>
+        <v>29.53423392109707</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>22.45624595928306</v>
+        <v>22.45624595928305</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>8.573207093960335</v>
+        <v>8.573207093960333</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>4.98774669987357</v>
+        <v>4.987746699873569</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>5.150957961304073</v>
+        <v>5.150957961304072</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>7.054014750851518</v>
+        <v>7.054014750851517</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>12.14064361916943</v>
+        <v>12.14064361916942</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>9.267521691652927</v>
+        <v>9.267521691652924</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>29.49115247841386</v>
+        <v>29.49115247841385</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>29.54830133095282</v>
+        <v>29.54830133095281</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>18.69145539663942</v>
+        <v>18.69145539663941</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>0.2488284485229513</v>
+        <v>0.2488284485229512</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>6.01340741387668</v>
+        <v>6.013407413876679</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>5.674148379522307</v>
+        <v>5.674148379522306</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>5.632385756513065</v>
+        <v>5.632385756513064</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>6.430506116099506</v>
+        <v>6.430506116099505</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>6.434990102991025</v>
+        <v>6.434990102991024</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>52.43744252144255</v>
+        <v>52.43744252144254</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>53.39021646813058</v>
+        <v>53.39021646813057</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>55.43819688629606</v>
+        <v>55.43819688629605</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>23.73506143648184</v>
+        <v>23.73506143648183</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>24.12915406216975</v>
+        <v>24.12915406216974</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>30.76220157308811</v>
+        <v>30.7622015730881</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>69.35526129920737</v>
+        <v>69.35526129920736</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>68.78699655524302</v>
+        <v>68.78699655524301</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>90.77054823626921</v>
+        <v>90.77054823626918</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>57.83288034319792</v>
+        <v>57.83288034319791</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>58.16668825623319</v>
+        <v>58.16668825623318</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>67.90543887094969</v>
+        <v>67.90543887094968</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>81.95086839879467</v>
+        <v>81.95086839879465</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>99.08878352659416</v>
+        <v>99.08878352659414</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>88.50598832053298</v>
+        <v>88.50598832053296</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>94.17222378201144</v>
+        <v>94.1722237820114</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>94.17427527928206</v>
+        <v>94.17427527928204</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>84.30745262067055</v>
+        <v>84.30745262067053</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>20.20074193864148</v>
+        <v>20.20074193864147</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>41.73683275783951</v>
+        <v>41.7368327578395</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>75.62756766863748</v>
+        <v>75.62756766863747</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>38.32050366016421</v>
+        <v>38.3205036601642</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>41.44669242956478</v>
+        <v>41.44669242956477</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>44.02220071732068</v>
+        <v>44.02220071732067</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>122.0963254167031</v>
+        <v>122.096325416703</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>78.21274730066921</v>
+        <v>78.21274730066919</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>85.55593524536788</v>
+        <v>85.55593524536786</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>88.63787028793058</v>
+        <v>88.63787028793057</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>79.93072972930202</v>
+        <v>79.930729729302</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>74.85268784241688</v>
+        <v>74.85268784241687</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>72.30267673502452</v>
+        <v>72.30267673502451</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>74.4022376559944</v>
+        <v>74.40223765599438</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>93.65495339877415</v>
+        <v>93.65495339877414</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>76.04226318834328</v>
+        <v>76.04226318834327</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>580</v>
       </c>
       <c r="B580">
-        <v>82.58272955814853</v>
+        <v>82.58272955814851</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>81.0567086598389</v>
+        <v>81.05670865983889</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>85.74613834945909</v>
+        <v>85.74613834945907</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>97.70314365580332</v>
+        <v>97.7031436558033</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>52.56991063091748</v>
+        <v>52.56991063091747</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>49.11255158782959</v>
+        <v>49.11255158782958</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>65.32172459411127</v>
+        <v>65.32172459411126</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>34.21897447409868</v>
+        <v>34.21897447409867</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>25.18051710626346</v>
+        <v>25.18051710626345</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>25.91829413898953</v>
+        <v>25.91829413898952</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>16.73230481029219</v>
+        <v>16.73230481029218</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>40.8582057839328</v>
+        <v>40.85820578393279</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>92.75024310242658</v>
+        <v>92.75024310242657</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>657</v>
       </c>
       <c r="B657">
-        <v>68.3511999207536</v>
+        <v>68.35119992075359</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>50.08085829956667</v>
+        <v>50.08085829956666</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>54.45728811989654</v>
+        <v>54.45728811989653</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>65.52101290040099</v>
+        <v>65.52101290040098</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>37.52833264266259</v>
+        <v>37.52833264266258</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>20.07132176796863</v>
+        <v>20.07132176796862</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>41.08738733616597</v>
+        <v>41.08738733616596</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>65.90786667143396</v>
+        <v>65.90786667143395</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>41.1993404729346</v>
+        <v>41.19934047293459</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>60.85180511244843</v>
+        <v>60.85180511244842</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>96.92826382958272</v>
+        <v>96.9282638295827</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>34.24447165446222</v>
+        <v>34.24447165446221</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>44.20331861921339</v>
+        <v>44.20331861921338</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>84.96979316804519</v>
+        <v>84.96979316804517</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>86.99989625285232</v>
+        <v>86.99989625285231</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>92.58670946285356</v>
+        <v>92.58670946285352</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>45.35479473011382</v>
+        <v>45.35479473011381</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>81.45352684618636</v>
+        <v>81.45352684618635</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>777</v>
       </c>
       <c r="B777">
-        <v>78.10870708194443</v>
+        <v>78.10870708194442</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>61.47897713518371</v>
+        <v>61.4789771351837</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>61.86612397725535</v>
+        <v>61.86612397725534</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>86.84749931274843</v>
+        <v>86.84749931274841</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>71.08994877704387</v>
+        <v>71.08994877704386</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>832</v>
       </c>
       <c r="B832">
-        <v>56.14391194739258</v>
+        <v>56.14391194739257</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>109.1906491582121</v>
+        <v>109.190649158212</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>57.62655833198033</v>
+        <v>57.62655833198032</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>99.77955196471896</v>
+        <v>99.77955196471892</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>75.79051516613319</v>
+        <v>75.79051516613318</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>43.38799498965753</v>
+        <v>43.38799498965752</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>61.01240804163485</v>
+        <v>61.01240804163484</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>82.58478105541916</v>
+        <v>82.58478105541914</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>105.8751364978363</v>
+        <v>105.8751364978362</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>56.9360829648942</v>
+        <v>56.93608296489419</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>904</v>
       </c>
       <c r="B904">
-        <v>49.53809073596586</v>
+        <v>49.53809073596585</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>42.40708622325801</v>
+        <v>42.407086223258</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>56.06009363033544</v>
+        <v>56.06009363033543</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>44.39176329707264</v>
+        <v>44.39176329707263</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>46.74805444790985</v>
+        <v>46.74805444790984</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>8.756024807877282</v>
+        <v>8.75602480787728</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>29.06206717070978</v>
+        <v>29.06206717070977</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>981</v>
       </c>
       <c r="B981">
-        <v>4.873273152172448</v>
+        <v>4.873273152172447</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>8.481387937547735</v>
+        <v>8.481387937547733</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>18.36907725411194</v>
+        <v>18.36907725411193</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>54.07805419586876</v>
+        <v>54.07805419586875</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>49.58146524968774</v>
+        <v>49.58146524968773</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>1032</v>
       </c>
       <c r="B1032">
-        <v>59.49693770071704</v>
+        <v>59.49693770071703</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>39.88257229622918</v>
+        <v>39.88257229622917</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>36.3970784334298</v>
+        <v>36.39707843342979</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>6.124745101464125</v>
+        <v>6.124745101464124</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>17.63039170116602</v>
+        <v>17.63039170116601</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>1083</v>
       </c>
       <c r="B1083">
-        <v>42.36371170953613</v>
+        <v>42.36371170953612</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>1096</v>
       </c>
       <c r="B1096">
-        <v>18.79728334870003</v>
+        <v>18.79728334870002</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>16.57940964942257</v>
+        <v>16.57940964942256</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>63.69312883227018</v>
+        <v>63.69312883227017</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>1124</v>
       </c>
       <c r="B1124">
-        <v>57.01052300871418</v>
+        <v>57.01052300871417</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>44.35600863035595</v>
+        <v>44.35600863035594</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>49.8918274796301</v>
+        <v>49.89182747963009</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>44.30501426962888</v>
+        <v>44.30501426962887</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>41.58414274669695</v>
+        <v>41.58414274669694</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>75.76472491473099</v>
+        <v>75.76472491473098</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>59.40022425795879</v>
+        <v>59.40022425795878</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>17.61157654048396</v>
+        <v>17.61157654048395</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>45.8515501406448</v>
+        <v>45.85155014064479</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>58.40671343689683</v>
+        <v>58.40671343689682</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>74.11678646433825</v>
+        <v>74.11678646433823</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9815,7 +9815,7 @@
         <v>1184</v>
       </c>
       <c r="B1184">
-        <v>66.952371853223</v>
+        <v>66.95237185322299</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>19.17812916344045</v>
+        <v>19.17812916344044</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9943,7 +9943,7 @@
         <v>1200</v>
       </c>
       <c r="B1200">
-        <v>45.34189960441272</v>
+        <v>45.34189960441271</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -10007,7 +10007,7 @@
         <v>1208</v>
       </c>
       <c r="B1208">
-        <v>42.64418069353504</v>
+        <v>42.64418069353503</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>35.41118745937303</v>
+        <v>35.41118745937302</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>20.28098478902696</v>
+        <v>20.28098478902695</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>7.602702349433289</v>
+        <v>7.602702349433288</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>0.6076241844565673</v>
+        <v>0.6076241844565672</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>1251</v>
       </c>
       <c r="B1251">
-        <v>14.63330072429577</v>
+        <v>14.63330072429576</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>6.41509057946592</v>
+        <v>6.415090579465919</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>1267</v>
       </c>
       <c r="B1267">
-        <v>5.42597582398388</v>
+        <v>5.425975823983879</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>14.69516802055718</v>
+        <v>14.69516802055717</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>7.377828941468439</v>
+        <v>7.377828941468438</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>1.719002315847348</v>
+        <v>1.719002315847347</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10687,7 +10687,7 @@
         <v>1293</v>
       </c>
       <c r="B1293">
-        <v>0.7195069841759224</v>
+        <v>0.7195069841759223</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>8.826742849506264</v>
+        <v>8.826742849506262</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10959,7 +10959,7 @@
         <v>1327</v>
       </c>
       <c r="B1327">
-        <v>19.76051993146827</v>
+        <v>19.76051993146826</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11095,7 +11095,7 @@
         <v>1344</v>
       </c>
       <c r="B1344">
-        <v>0.2531491948459355</v>
+        <v>0.2531491948459354</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>4.890505729245735</v>
+        <v>4.890505729245734</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11143,7 +11143,7 @@
         <v>1350</v>
       </c>
       <c r="B1350">
-        <v>20.46180961988101</v>
+        <v>20.461809619881</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>17.43552876756009</v>
+        <v>17.43552876756008</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>8.560546425090164</v>
+        <v>8.560546425090163</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1387</v>
       </c>
       <c r="B1387">
-        <v>0.1151525932976998</v>
+        <v>0.1151525932976997</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>6.334583965145648</v>
+        <v>6.334583965145647</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>0.1460255757234019</v>
+        <v>0.1460255757234018</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11663,7 +11663,7 @@
         <v>1415</v>
       </c>
       <c r="B1415">
-        <v>6.812963821552562</v>
+        <v>6.812963821552561</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>59.52214181004191</v>
+        <v>59.5221418100419</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>50.99758450849936</v>
+        <v>50.99758450849935</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>25.62475418666633</v>
+        <v>25.62475418666632</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>47.1457518473733</v>
+        <v>47.14575184737329</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1462</v>
       </c>
       <c r="B1462">
-        <v>40.14721544414037</v>
+        <v>40.14721544414036</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>72.52130772986588</v>
+        <v>72.52130772986587</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12135,7 +12135,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>35.03400503261588</v>
+        <v>35.03400503261587</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>27.20593105445202</v>
+        <v>27.20593105445201</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12231,7 +12231,7 @@
         <v>1486</v>
       </c>
       <c r="B1486">
-        <v>31.88319829596776</v>
+        <v>31.88319829596775</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>69.45197474196561</v>
+        <v>69.4519747419656</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>75.53290572314987</v>
+        <v>75.53290572314985</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>43.71916526334485</v>
+        <v>43.71916526334484</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>7.796451613092304</v>
+        <v>7.796451613092303</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>6.572205963292267</v>
+        <v>6.572205963292266</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>1.447419245740653</v>
+        <v>1.447419245740652</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12823,7 +12823,7 @@
         <v>1560</v>
       </c>
       <c r="B1560">
-        <v>14.82057311800037</v>
+        <v>14.82057311800036</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>0.3841194182422655</v>
+        <v>0.3841194182422654</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>10.53467294151299</v>
+        <v>10.53467294151298</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>38.1575561626685</v>
+        <v>38.15755616266849</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>44.34604421504147</v>
+        <v>44.34604421504146</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>46.72255726754632</v>
+        <v>46.72255726754631</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>64.92226876841586</v>
+        <v>64.92226876841585</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>47.4414605253826</v>
+        <v>47.44146052538259</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>30.56613704822367</v>
+        <v>30.56613704822366</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>21.04399523818177</v>
+        <v>21.04399523818176</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13415,7 +13415,7 @@
         <v>1634</v>
       </c>
       <c r="B1634">
-        <v>69.7447527095883</v>
+        <v>69.74475270958828</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13527,7 +13527,7 @@
         <v>1648</v>
       </c>
       <c r="B1648">
-        <v>6.851502663136529</v>
+        <v>6.851502663136528</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13599,7 +13599,7 @@
         <v>1657</v>
       </c>
       <c r="B1657">
-        <v>47.61466550923145</v>
+        <v>47.61466550923144</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>10.53505393386325</v>
+        <v>10.53505393386324</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>9.017239024636138</v>
+        <v>9.017239024636137</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13743,7 +13743,7 @@
         <v>1675</v>
       </c>
       <c r="B1675">
-        <v>6.320018334524179</v>
+        <v>6.320018334524178</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>3.358095882293293</v>
+        <v>3.358095882293292</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>6.11712525445893</v>
+        <v>6.117125254458929</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>50.11368225589674</v>
+        <v>50.11368225589673</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14231,7 +14231,7 @@
         <v>1736</v>
       </c>
       <c r="B1736">
-        <v>29.92401840251667</v>
+        <v>29.92401840251666</v>
       </c>
     </row>
     <row r="1737" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>17.36818104287571</v>
+        <v>17.3681810428757</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>4.622902563844061</v>
+        <v>4.62290256384406</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>4.433344216037903</v>
+        <v>4.433344216037902</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>8.701308444959208</v>
+        <v>8.701308444959206</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>60.09040655400626</v>
+        <v>60.09040655400625</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>3.679594811704789</v>
+        <v>3.679594811704788</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>18.60637687411603</v>
+        <v>18.60637687411602</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>61.31339199834005</v>
+        <v>61.31339199834004</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14671,7 +14671,7 @@
         <v>1791</v>
       </c>
       <c r="B1791">
-        <v>7.397259551331686</v>
+        <v>7.397259551331685</v>
       </c>
     </row>
     <row r="1792" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>44.98024994270462</v>
+        <v>44.98024994270461</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>55.41533734528048</v>
+        <v>55.41533734528047</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>8.851478045169282</v>
+        <v>8.85147804516928</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>53.75421069814797</v>
+        <v>53.75421069814796</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>13.06865306309058</v>
+        <v>13.06865306309057</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>19.66705957723917</v>
+        <v>19.66705957723916</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>40.24158431858933</v>
+        <v>40.24158431858932</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15287,7 +15287,7 @@
         <v>1868</v>
       </c>
       <c r="B1868">
-        <v>0.2467479372194944</v>
+        <v>0.2467479372194943</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>34.86080004876703</v>
+        <v>34.86080004876702</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15415,7 +15415,7 @@
         <v>1884</v>
       </c>
       <c r="B1884">
-        <v>17.38813918060855</v>
+        <v>17.38813918060854</v>
       </c>
     </row>
     <row r="1885" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>2.587014256733747</v>
+        <v>2.587014256733746</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15543,7 +15543,7 @@
         <v>1900</v>
       </c>
       <c r="B1900">
-        <v>37.5130929486522</v>
+        <v>37.51309294865219</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>46.00189558347807</v>
+        <v>46.00189558347806</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>41.33444622175748</v>
+        <v>41.33444622175747</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>1.144849774716293</v>
+        <v>1.144849774716292</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>27.39792189187907</v>
+        <v>27.39792189187906</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>25.40451130111233</v>
+        <v>25.40451130111232</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16015,7 +16015,7 @@
         <v>1959</v>
       </c>
       <c r="B1959">
-        <v>33.81365722763004</v>
+        <v>33.81365722763003</v>
       </c>
     </row>
     <row r="1960" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>25.34340598955144</v>
+        <v>25.34340598955143</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>16.35770140867526</v>
+        <v>16.35770140867525</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>39.3471315085949</v>
+        <v>39.34713150859489</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>32.93737482203262</v>
+        <v>32.93737482203261</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>20.11794937021965</v>
+        <v>20.11794937021964</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>27.00998375800304</v>
+        <v>27.00998375800303</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>7.110811918144087</v>
+        <v>7.110811918144086</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16743,7 +16743,7 @@
         <v>2050</v>
       </c>
       <c r="B2050">
-        <v>24.14099413213167</v>
+        <v>24.14099413213166</v>
       </c>
     </row>
     <row r="2051" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>24.71133968047052</v>
+        <v>24.71133968047051</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>23.14707301161559</v>
+        <v>23.14707301161558</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>1.493431398810484</v>
+        <v>1.493431398810483</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>0.6164338998787273</v>
+        <v>0.6164338998787272</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>0.410727337842329</v>
+        <v>0.4107273378423289</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>0.6301496244880782</v>
+        <v>0.6301496244880781</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>3.354989329283483</v>
+        <v>3.354989329283482</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>6.90668793971646</v>
+        <v>6.906687939716459</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17335,7 +17335,7 @@
         <v>2124</v>
       </c>
       <c r="B2124">
-        <v>0.607747274292805</v>
+        <v>0.6077472742928048</v>
       </c>
     </row>
     <row r="2125" spans="1:2">
@@ -17487,7 +17487,7 @@
         <v>2143</v>
       </c>
       <c r="B2143">
-        <v>32.50187125858186</v>
+        <v>32.50187125858185</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>8.476522958305956</v>
+        <v>8.476522958305955</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>2.562255615387637</v>
+        <v>2.562255615387636</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17591,7 +17591,7 @@
         <v>2156</v>
       </c>
       <c r="B2156">
-        <v>2.389437485309815</v>
+        <v>2.389437485309814</v>
       </c>
     </row>
     <row r="2157" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>0.6611213718538093</v>
+        <v>0.6611213718538091</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17799,7 +17799,7 @@
         <v>2182</v>
       </c>
       <c r="B2182">
-        <v>4.038899905103598</v>
+        <v>4.038899905103597</v>
       </c>
     </row>
     <row r="2183" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>7.759817733259636</v>
+        <v>7.759817733259635</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>1.170244380216299</v>
+        <v>1.170244380216298</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18207,7 +18207,7 @@
         <v>2233</v>
       </c>
       <c r="B2233">
-        <v>0.8844825332591669</v>
+        <v>0.8844825332591668</v>
       </c>
     </row>
     <row r="2234" spans="1:2">
@@ -18223,7 +18223,7 @@
         <v>2235</v>
       </c>
       <c r="B2235">
-        <v>7.661697549515818</v>
+        <v>7.661697549515817</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>0.3720947135259905</v>
+        <v>0.3720947135259904</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>0.1675657109229335</v>
+        <v>0.1675657109229334</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>5.53370873779579</v>
+        <v>5.533708737795789</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>3.832519279678279</v>
+        <v>3.832519279678278</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>0.7836543731181177</v>
+        <v>0.7836543731181176</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>0.8765666845049239</v>
+        <v>0.8765666845049238</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18975,7 +18975,7 @@
         <v>2329</v>
       </c>
       <c r="B2329">
-        <v>2.381694548468382</v>
+        <v>2.381694548468381</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -19039,7 +19039,7 @@
         <v>2337</v>
       </c>
       <c r="B2337">
-        <v>3.732025220521304</v>
+        <v>3.732025220521303</v>
       </c>
     </row>
     <row r="2338" spans="1:2">
@@ -19079,7 +19079,7 @@
         <v>2342</v>
       </c>
       <c r="B2342">
-        <v>0.2164171362153158</v>
+        <v>0.2164171362153157</v>
       </c>
     </row>
     <row r="2343" spans="1:2">
@@ -19127,7 +19127,7 @@
         <v>2348</v>
       </c>
       <c r="B2348">
-        <v>0.4549752032594189</v>
+        <v>0.4549752032594188</v>
       </c>
     </row>
     <row r="2349" spans="1:2">
@@ -19135,7 +19135,7 @@
         <v>2349</v>
       </c>
       <c r="B2349">
-        <v>1.063748226187539</v>
+        <v>1.063748226187538</v>
       </c>
     </row>
     <row r="2350" spans="1:2">
@@ -19199,7 +19199,7 @@
         <v>2357</v>
       </c>
       <c r="B2357">
-        <v>41.28110729272112</v>
+        <v>41.28110729272111</v>
       </c>
     </row>
     <row r="2358" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>5.087390853018428</v>
+        <v>5.087390853018427</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19487,7 +19487,7 @@
         <v>2393</v>
       </c>
       <c r="B2393">
-        <v>1.668265857634296</v>
+        <v>1.668265857634295</v>
       </c>
     </row>
     <row r="2394" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>40.23132683223618</v>
+        <v>40.23132683223617</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19575,7 +19575,7 @@
         <v>2404</v>
       </c>
       <c r="B2404">
-        <v>40.04786436203418</v>
+        <v>40.04786436203417</v>
       </c>
     </row>
     <row r="2405" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>41.92029522804151</v>
+        <v>41.9202952280415</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>0.7583359660881641</v>
+        <v>0.758335966088164</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19799,7 +19799,7 @@
         <v>2432</v>
       </c>
       <c r="B2432">
-        <v>7.575563971253249</v>
+        <v>7.575563971253248</v>
       </c>
     </row>
     <row r="2433" spans="1:2">
@@ -19831,7 +19831,7 @@
         <v>2436</v>
       </c>
       <c r="B2436">
-        <v>0.5063271106536599</v>
+        <v>0.5063271106536598</v>
       </c>
     </row>
     <row r="2437" spans="1:2">
@@ -20095,7 +20095,7 @@
         <v>2469</v>
       </c>
       <c r="B2469">
-        <v>0.5503346578190474</v>
+        <v>0.5503346578190473</v>
       </c>
     </row>
     <row r="2470" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>41.82387485632193</v>
+        <v>41.82387485632192</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20383,7 +20383,7 @@
         <v>2505</v>
       </c>
       <c r="B2505">
-        <v>5.274370175684366</v>
+        <v>5.274370175684365</v>
       </c>
     </row>
     <row r="2506" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>38.22906549610187</v>
+        <v>38.22906549610186</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>43.89735245485095</v>
+        <v>43.89735245485094</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>3.697999672932722</v>
+        <v>3.697999672932721</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>4.691041580332824</v>
+        <v>4.691041580332823</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>3.076894220697732</v>
+        <v>3.076894220697731</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20791,7 +20791,7 @@
         <v>2556</v>
       </c>
       <c r="B2556">
-        <v>1.953274512022068</v>
+        <v>1.953274512022067</v>
       </c>
     </row>
     <row r="2557" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>48.81186070216305</v>
+        <v>48.81186070216304</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>32.43036192514849</v>
+        <v>32.43036192514848</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>2.792049686091611</v>
+        <v>2.79204968609161</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21503,7 +21503,7 @@
         <v>2645</v>
       </c>
       <c r="B2645">
-        <v>40.12963118182069</v>
+        <v>40.12963118182068</v>
       </c>
     </row>
     <row r="2646" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>0.8835124681211979</v>
+        <v>0.8835124681211978</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>0.9050854272770597</v>
+        <v>0.9050854272770594</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21767,7 +21767,7 @@
         <v>2678</v>
       </c>
       <c r="B2678">
-        <v>0.2128393249753381</v>
+        <v>0.212839324975338</v>
       </c>
     </row>
     <row r="2679" spans="1:2">
@@ -21895,7 +21895,7 @@
         <v>2694</v>
       </c>
       <c r="B2694">
-        <v>27.31650675733895</v>
+        <v>27.31650675733894</v>
       </c>
     </row>
     <row r="2695" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>6.950941666554323</v>
+        <v>6.950941666554322</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>6.193440952926345</v>
+        <v>6.193440952926344</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>6.138636668696673</v>
+        <v>6.138636668696672</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>7.510209129631769</v>
+        <v>7.510209129631768</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22063,7 +22063,7 @@
         <v>2715</v>
       </c>
       <c r="B2715">
-        <v>32.41277766282881</v>
+        <v>32.4127776628288</v>
       </c>
     </row>
     <row r="2716" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>22.13594862113008</v>
+        <v>22.13594862113007</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>3.673498934100633</v>
+        <v>3.673498934100632</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>0.1670059452390903</v>
+        <v>0.1670059452390902</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22439,7 +22439,7 @@
         <v>2762</v>
       </c>
       <c r="B2762">
-        <v>8.376996033576564</v>
+        <v>8.376996033576562</v>
       </c>
     </row>
     <row r="2763" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>20.01001130668068</v>
+        <v>20.01001130668067</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>6.00438082588591</v>
+        <v>6.004380825885909</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>3.1007208961409</v>
+        <v>3.100720896140899</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>22.81707502208291</v>
+        <v>22.8170750220829</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>8.951385962248935</v>
+        <v>8.951385962248933</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>6.442111729230496</v>
+        <v>6.442111729230495</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>0.2522145913036445</v>
+        <v>0.2522145913036444</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23623,7 +23623,7 @@
         <v>2910</v>
       </c>
       <c r="B2910">
-        <v>0.9716359987362778</v>
+        <v>0.9716359987362776</v>
       </c>
     </row>
     <row r="2911" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>9.96374125109682</v>
+        <v>9.963741251096817</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>0.3170266653615237</v>
+        <v>0.3170266653615236</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>0.8231955176543064</v>
+        <v>0.8231955176543063</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24551,7 +24551,7 @@
         <v>3026</v>
       </c>
       <c r="B3026">
-        <v>0.5574592147689048</v>
+        <v>0.5574592147689047</v>
       </c>
     </row>
     <row r="3027" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>2.492616075180928</v>
+        <v>2.492616075180927</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>0.4938071158820472</v>
+        <v>0.4938071158820471</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>0.6128203339720329</v>
+        <v>0.6128203339720328</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>0.926766822717226</v>
+        <v>0.9267668227172258</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>9.51399443516712</v>
+        <v>9.513994435167117</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>1.377513010888762</v>
+        <v>1.377513010888761</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>0.8618076269979387</v>
+        <v>0.8618076269979386</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>2.421991816284317</v>
+        <v>2.421991816284316</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26279,7 +26279,7 @@
         <v>3242</v>
       </c>
       <c r="B3242">
-        <v>3.706615961469365</v>
+        <v>3.706615961469364</v>
       </c>
     </row>
     <row r="3243" spans="1:2">
@@ -26935,7 +26935,7 @@
         <v>3324</v>
       </c>
       <c r="B3324">
-        <v>0.3289312109519475</v>
+        <v>0.3289312109519474</v>
       </c>
     </row>
     <row r="3325" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>5.547395155301275</v>
+        <v>5.547395155301274</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27247,7 +27247,7 @@
         <v>3363</v>
       </c>
       <c r="B3363">
-        <v>26.60317184923723</v>
+        <v>26.60317184923722</v>
       </c>
     </row>
     <row r="3364" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>5.502760436113152</v>
+        <v>5.502760436113151</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27439,7 +27439,7 @@
         <v>3387</v>
       </c>
       <c r="B3387">
-        <v>26.64168138371733</v>
+        <v>26.64168138371732</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -27623,7 +27623,7 @@
         <v>3410</v>
       </c>
       <c r="B3410">
-        <v>8.866893581802868</v>
+        <v>8.866893581802866</v>
       </c>
     </row>
     <row r="3411" spans="1:2">
@@ -27831,7 +27831,7 @@
         <v>3436</v>
       </c>
       <c r="B3436">
-        <v>4.724832671090477</v>
+        <v>4.724832671090476</v>
       </c>
     </row>
     <row r="3437" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>5.549036353117778</v>
+        <v>5.549036353117777</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -28223,7 +28223,7 @@
         <v>3485</v>
       </c>
       <c r="B3485">
-        <v>0.668090601153176</v>
+        <v>0.6680906011531759</v>
       </c>
     </row>
     <row r="3486" spans="1:2">
@@ -29735,7 +29735,7 @@
         <v>3674</v>
       </c>
       <c r="B3674">
-        <v>0.3515650872677632</v>
+        <v>0.3515650872677631</v>
       </c>
     </row>
     <row r="3675" spans="1:2">
@@ -29743,7 +29743,7 @@
         <v>3675</v>
       </c>
       <c r="B3675">
-        <v>3.240369246063031</v>
+        <v>3.24036924606303</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -29775,7 +29775,7 @@
         <v>3679</v>
       </c>
       <c r="B3679">
-        <v>0.4132917094306158</v>
+        <v>0.4132917094306157</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -30887,7 +30887,7 @@
         <v>3818</v>
       </c>
       <c r="B3818">
-        <v>0.1640822685574047</v>
+        <v>0.1640822685574046</v>
       </c>
     </row>
     <row r="3819" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>0.6436748529222993</v>
+        <v>0.6436748529222992</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>4.202521465988228</v>
+        <v>4.202521465988227</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>2.209869929211622</v>
+        <v>2.209869929211621</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>3.697003231401273</v>
+        <v>3.697003231401272</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>9.16749654615781</v>
+        <v>9.167496546157809</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>10.53657790326429</v>
+        <v>10.53657790326428</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -48015,7 +48015,7 @@
         <v>5959</v>
       </c>
       <c r="B5959">
-        <v>0.8828413354426634</v>
+        <v>0.8828413354426633</v>
       </c>
     </row>
     <row r="5960" spans="1:2">
@@ -49159,7 +49159,7 @@
         <v>6102</v>
       </c>
       <c r="B6102">
-        <v>0.4250438580809357</v>
+        <v>0.4250438580809356</v>
       </c>
     </row>
     <row r="6103" spans="1:2">
@@ -50479,7 +50479,7 @@
         <v>6267</v>
       </c>
       <c r="B6267">
-        <v>0.7776786546398129</v>
+        <v>0.7776786546398128</v>
       </c>
     </row>
     <row r="6268" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>2.225895053605624</v>
+        <v>2.225895053605623</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>4.413972220382388</v>
+        <v>4.413972220382387</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>0.6275295694024458</v>
+        <v>0.6275295694024456</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51639,7 +51639,7 @@
         <v>6412</v>
       </c>
       <c r="B6412">
-        <v>15.87398765936471</v>
+        <v>15.8739876593647</v>
       </c>
     </row>
     <row r="6413" spans="1:2">
@@ -51799,7 +51799,7 @@
         <v>6432</v>
       </c>
       <c r="B6432">
-        <v>0.3885828901610778</v>
+        <v>0.3885828901610777</v>
       </c>
     </row>
     <row r="6433" spans="1:2">
@@ -51991,7 +51991,7 @@
         <v>6456</v>
       </c>
       <c r="B6456">
-        <v>0.4389705938381228</v>
+        <v>0.4389705938381227</v>
       </c>
     </row>
     <row r="6457" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>8.688442626361976</v>
+        <v>8.688442626361974</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>3.900511760647711</v>
+        <v>3.90051176064771</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>0.1580989302320947</v>
+        <v>0.1580989302320946</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>0.8378637231393067</v>
+        <v>0.8378637231393066</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>7.482308766751209</v>
+        <v>7.482308766751208</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -53383,7 +53383,7 @@
         <v>6630</v>
       </c>
       <c r="B6630">
-        <v>1.017560230494511</v>
+        <v>1.01756023049451</v>
       </c>
     </row>
     <row r="6631" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>5.055416802700474</v>
+        <v>5.055416802700473</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>4.568420657756917</v>
+        <v>4.568420657756916</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -54007,7 +54007,7 @@
         <v>6708</v>
       </c>
       <c r="B6708">
-        <v>0.8983799619124879</v>
+        <v>0.8983799619124878</v>
       </c>
     </row>
     <row r="6709" spans="1:2">
@@ -54047,7 +54047,7 @@
         <v>6713</v>
       </c>
       <c r="B6713">
-        <v>0.7505519993013187</v>
+        <v>0.7505519993013186</v>
       </c>
     </row>
     <row r="6714" spans="1:2">
@@ -54191,7 +54191,7 @@
         <v>6731</v>
       </c>
       <c r="B6731">
-        <v>4.256006930543923</v>
+        <v>4.256006930543922</v>
       </c>
     </row>
     <row r="6732" spans="1:2">
@@ -54215,7 +54215,7 @@
         <v>6734</v>
       </c>
       <c r="B6734">
-        <v>0.7807119398899578</v>
+        <v>0.7807119398899577</v>
       </c>
     </row>
     <row r="6735" spans="1:2">
@@ -54247,7 +54247,7 @@
         <v>6738</v>
       </c>
       <c r="B6738">
-        <v>1.455689710451676</v>
+        <v>1.455689710451675</v>
       </c>
     </row>
     <row r="6739" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>0.7684615704739135</v>
+        <v>0.7684615704739134</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>3.343237180633163</v>
+        <v>3.343237180633162</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>9.378947300551973</v>
+        <v>9.378947300551969</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>0.7228714396997546</v>
+        <v>0.7228714396997545</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>0.4973210376355967</v>
+        <v>0.4973210376355966</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>21.45455845624245</v>
+        <v>21.45455845624244</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>2.892508576723947</v>
+        <v>2.892508576723946</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>0.3715671856564</v>
+        <v>0.3715671856563999</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>10.90027906224302</v>
+        <v>10.90027906224301</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>18.45717440833354</v>
+        <v>18.45717440833353</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56111,7 +56111,7 @@
         <v>6971</v>
       </c>
       <c r="B6971">
-        <v>3.723848538542652</v>
+        <v>3.723848538542651</v>
       </c>
     </row>
     <row r="6972" spans="1:2">
@@ -56135,7 +56135,7 @@
         <v>6974</v>
       </c>
       <c r="B6974">
-        <v>0.4191765758869356</v>
+        <v>0.4191765758869355</v>
       </c>
     </row>
     <row r="6975" spans="1:2">
@@ -56191,7 +56191,7 @@
         <v>6981</v>
       </c>
       <c r="B6981">
-        <v>0.9504440319306759</v>
+        <v>0.9504440319306758</v>
       </c>
     </row>
     <row r="6982" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>33.06720529215959</v>
+        <v>33.06720529215958</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>0.9749008101069652</v>
+        <v>0.9749008101069651</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>0.302581193865906</v>
+        <v>0.3025811938659059</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>0.6416614548866959</v>
+        <v>0.6416614548866958</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>7.454818703324775</v>
+        <v>7.454818703324774</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57991,7 +57991,7 @@
         <v>7206</v>
       </c>
       <c r="B7206">
-        <v>36.85837224828276</v>
+        <v>36.85837224828275</v>
       </c>
     </row>
     <row r="7207" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>4.59045959986425</v>
+        <v>4.590459599864249</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>59.32607728517747</v>
+        <v>59.32607728517746</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>0.867475620885649</v>
+        <v>0.8674756208856489</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>3.704857535237397</v>
+        <v>3.704857535237396</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>0.68439121232352</v>
+        <v>0.6843912123235198</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58647,7 +58647,7 @@
         <v>7288</v>
       </c>
       <c r="B7288">
-        <v>0.1706960026868753</v>
+        <v>0.1706960026868752</v>
       </c>
     </row>
     <row r="7289" spans="1:2">
@@ -58679,7 +58679,7 @@
         <v>7292</v>
       </c>
       <c r="B7292">
-        <v>0.0104513235381177</v>
+        <v>0.0104513235381176</v>
       </c>
     </row>
     <row r="7293" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>29.04981680129374</v>
+        <v>29.04981680129373</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58927,7 +58927,7 @@
         <v>7323</v>
       </c>
       <c r="B7323">
-        <v>31.5470458146232</v>
+        <v>31.54704581462319</v>
       </c>
     </row>
     <row r="7324" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>2.013972454839219</v>
+        <v>2.013972454839218</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>38.29002427214343</v>
+        <v>38.29002427214342</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>8.219792728438618</v>
+        <v>8.219792728438616</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59287,7 +59287,7 @@
         <v>7368</v>
       </c>
       <c r="B7368">
-        <v>7.066382348683027</v>
+        <v>7.066382348683026</v>
       </c>
     </row>
     <row r="7369" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>8.233684295671166</v>
+        <v>8.233684295671164</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>12.49918672786772</v>
+        <v>12.49918672786771</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>3.868244639291097</v>
+        <v>3.868244639291096</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>5.838502618003589</v>
+        <v>5.838502618003588</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>3.816810672006031</v>
+        <v>3.81681067200603</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>3.126657683062429</v>
+        <v>3.126657683062428</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>9.283318220636774</v>
+        <v>9.283318220636772</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>7.358896552370916</v>
+        <v>7.358896552370915</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59871,7 +59871,7 @@
         <v>7441</v>
       </c>
       <c r="B7441">
-        <v>36.64179275071202</v>
+        <v>36.64179275071201</v>
       </c>
     </row>
     <row r="7442" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>43.27311114250228</v>
+        <v>43.27311114250227</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -59943,7 +59943,7 @@
         <v>7450</v>
       </c>
       <c r="B7450">
-        <v>16.05358159185638</v>
+        <v>16.05358159185637</v>
       </c>
     </row>
     <row r="7451" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>5.541885419774442</v>
+        <v>5.541885419774441</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>2.721621784790903</v>
+        <v>2.721621784790902</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>2.245554258879027</v>
+        <v>2.245554258879026</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60295,7 +60295,7 @@
         <v>7494</v>
       </c>
       <c r="B7494">
-        <v>13.73744117331577</v>
+        <v>13.73744117331576</v>
       </c>
     </row>
     <row r="7495" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>0.3055646570394785</v>
+        <v>0.3055646570394784</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60815,7 +60815,7 @@
         <v>7559</v>
       </c>
       <c r="B7559">
-        <v>6.358938168458406</v>
+        <v>6.358938168458405</v>
       </c>
     </row>
     <row r="7560" spans="1:2">
@@ -60919,7 +60919,7 @@
         <v>7572</v>
       </c>
       <c r="B7572">
-        <v>3.390685381792435</v>
+        <v>3.390685381792434</v>
       </c>
     </row>
     <row r="7573" spans="1:2">
@@ -61015,7 +61015,7 @@
         <v>7584</v>
       </c>
       <c r="B7584">
-        <v>27.13442172101865</v>
+        <v>27.13442172101864</v>
       </c>
     </row>
     <row r="7585" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>32.73105281081503</v>
+        <v>32.73105281081502</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>60.47227811738199</v>
+        <v>60.47227811738198</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>3.377643720572005</v>
+        <v>3.377643720572004</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>71.17874930175826</v>
+        <v>71.17874930175824</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61679,7 +61679,7 @@
         <v>7667</v>
       </c>
       <c r="B7667">
-        <v>19.11930980598112</v>
+        <v>19.11930980598111</v>
       </c>
     </row>
     <row r="7668" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>8.31788360507857</v>
+        <v>8.317883605078569</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61815,7 +61815,7 @@
         <v>7684</v>
       </c>
       <c r="B7684">
-        <v>31.6220720005205</v>
+        <v>31.62207200052049</v>
       </c>
     </row>
     <row r="7685" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>14.58227705646483</v>
+        <v>14.58227705646482</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -61999,7 +61999,7 @@
         <v>7707</v>
       </c>
       <c r="B7707">
-        <v>49.75730787288455</v>
+        <v>49.75730787288454</v>
       </c>
     </row>
     <row r="7708" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>19.1258159830394</v>
+        <v>19.12581598303939</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>38.92188543149729</v>
+        <v>38.92188543149728</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>53.34420431506075</v>
+        <v>53.34420431506074</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62207,7 +62207,7 @@
         <v>7733</v>
       </c>
       <c r="B7733">
-        <v>53.91481362733439</v>
+        <v>53.91481362733438</v>
       </c>
     </row>
     <row r="7734" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>61.21873005285244</v>
+        <v>61.21873005285243</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62223,7 +62223,7 @@
         <v>7735</v>
       </c>
       <c r="B7735">
-        <v>67.84653159217876</v>
+        <v>67.84653159217875</v>
       </c>
     </row>
     <row r="7736" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>54.3658499558342</v>
+        <v>54.36584995583419</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>43.81060342740719</v>
+        <v>43.81060342740718</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>70.41442003292947</v>
+        <v>70.41442003292946</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>85.99905865582383</v>
+        <v>85.99905865582382</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>17.36146971609037</v>
+        <v>17.36146971609036</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>52.04970953729359</v>
+        <v>52.04970953729358</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62543,7 +62543,7 @@
         <v>7775</v>
       </c>
       <c r="B7775">
-        <v>33.13607698624501</v>
+        <v>33.136076986245</v>
       </c>
     </row>
     <row r="7776" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>59.0051644978433</v>
+        <v>59.00516449784329</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>67.71933876139974</v>
+        <v>67.71933876139973</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>78.86834721415464</v>
+        <v>78.86834721415462</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>51.9738041382803</v>
+        <v>51.97380413828029</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62647,7 +62647,7 @@
         <v>7788</v>
       </c>
       <c r="B7788">
-        <v>37.68864250081035</v>
+        <v>37.68864250081034</v>
       </c>
     </row>
     <row r="7789" spans="1:2">
@@ -62799,7 +62799,7 @@
         <v>7807</v>
       </c>
       <c r="B7807">
-        <v>79.36187884326034</v>
+        <v>79.36187884326033</v>
       </c>
     </row>
     <row r="7808" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>24.58086445405848</v>
+        <v>24.58086445405847</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>51.79239316534893</v>
+        <v>51.79239316534892</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>87.11976230766481</v>
+        <v>87.1197623076648</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>41.28374493206907</v>
+        <v>41.28374493206906</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63031,7 +63031,7 @@
         <v>7836</v>
       </c>
       <c r="B7836">
-        <v>35.60725198423747</v>
+        <v>35.60725198423746</v>
       </c>
     </row>
     <row r="7837" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>53.59390084000022</v>
+        <v>53.59390084000021</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>92.34551199803526</v>
+        <v>92.34551199803524</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>64.33612669109317</v>
+        <v>64.33612669109316</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>56.75525813404015</v>
+        <v>56.75525813404014</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>40.45552617681211</v>
+        <v>40.4555261768121</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>5.443589393407426</v>
+        <v>5.443589393407425</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>4.500574712306816</v>
+        <v>4.500574712306815</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>6.686474361266326</v>
+        <v>6.686474361266325</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>9.706981714125616</v>
+        <v>9.706981714125613</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>5.727545922766404</v>
+        <v>5.727545922766403</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>72.23644268028706</v>
+        <v>72.23644268028704</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64199,7 +64199,7 @@
         <v>7982</v>
       </c>
       <c r="B7982">
-        <v>7.680923009652003</v>
+        <v>7.680923009652002</v>
       </c>
     </row>
     <row r="7983" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>32.06373005578315</v>
+        <v>32.06373005578314</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>40.44028648280172</v>
+        <v>40.44028648280171</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64303,7 +64303,7 @@
         <v>7995</v>
       </c>
       <c r="B7995">
-        <v>45.61445567036777</v>
+        <v>45.61445567036776</v>
       </c>
     </row>
     <row r="7996" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>46.87319578141825</v>
+        <v>46.87319578141824</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>0.6232302172652839</v>
+        <v>0.6232302172652838</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>0.5758904523903168</v>
+        <v>0.5758904523903167</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64807,7 +64807,7 @@
         <v>8058</v>
       </c>
       <c r="B8058">
-        <v>5.288173821605315</v>
+        <v>5.288173821605314</v>
       </c>
     </row>
     <row r="8059" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>4.124447341288845</v>
+        <v>4.124447341288844</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64823,7 +64823,7 @@
         <v>8060</v>
       </c>
       <c r="B8060">
-        <v>5.626289878908909</v>
+        <v>5.626289878908908</v>
       </c>
     </row>
     <row r="8061" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>9.421002994599874</v>
+        <v>9.421002994599872</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>34.90915677014615</v>
+        <v>34.90915677014614</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>6.054437359289268</v>
+        <v>6.054437359289267</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>2.569746511135821</v>
+        <v>2.56974651113582</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>5.48230407761459</v>
+        <v>5.482304077614589</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>0.1886929090289912</v>
+        <v>0.1886929090289911</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>0.0227367735574897</v>
+        <v>0.0227367735574896</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>22.06549434343589</v>
+        <v>22.06549434343588</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66143,7 +66143,7 @@
         <v>8225</v>
       </c>
       <c r="B8225">
-        <v>18.46230315151011</v>
+        <v>18.4623031515101</v>
       </c>
     </row>
     <row r="8226" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>23.39184594310554</v>
+        <v>23.39184594310553</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>8.164402302131624</v>
+        <v>8.164402302131622</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>18.17072677514594</v>
+        <v>18.17072677514593</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>24.00852602265674</v>
+        <v>24.00852602265673</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>4.703467792372065</v>
+        <v>4.703467792372064</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>44.88089886059842</v>
+        <v>44.88089886059841</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66599,7 +66599,7 @@
         <v>8282</v>
       </c>
       <c r="B8282">
-        <v>46.75860500530166</v>
+        <v>46.75860500530165</v>
       </c>
     </row>
     <row r="8283" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>56.11607019871976</v>
+        <v>56.11607019871975</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>38.48608879700787</v>
+        <v>38.48608879700786</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>51.20185502244632</v>
+        <v>51.20185502244631</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66895,7 +66895,7 @@
         <v>8319</v>
       </c>
       <c r="B8319">
-        <v>35.76521727407594</v>
+        <v>35.76521727407593</v>
       </c>
     </row>
     <row r="8320" spans="1:2">
@@ -66911,7 +66911,7 @@
         <v>8321</v>
       </c>
       <c r="B8321">
-        <v>46.2055799553477</v>
+        <v>46.20557995534769</v>
       </c>
     </row>
     <row r="8322" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>13.37162990285868</v>
+        <v>13.37162990285867</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>40.98041640705458</v>
+        <v>40.98041640705457</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>45.98167368181044</v>
+        <v>45.98167368181043</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>65.89526461677153</v>
+        <v>65.89526461677151</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>70.51699489646094</v>
+        <v>70.51699489646093</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>95.69502089889578</v>
+        <v>95.69502089889576</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>77.21190970364071</v>
+        <v>77.2119097036407</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>35.60490741592818</v>
+        <v>35.60490741592817</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>6.607902015801218</v>
+        <v>6.607902015801217</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>6.861877377905141</v>
+        <v>6.86187737790514</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67407,7 +67407,7 @@
         <v>8383</v>
       </c>
       <c r="B8383">
-        <v>46.28969134344351</v>
+        <v>46.2896913434435</v>
       </c>
     </row>
     <row r="8384" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>41.91033081272703</v>
+        <v>41.91033081272702</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67735,7 +67735,7 @@
         <v>8424</v>
       </c>
       <c r="B8424">
-        <v>35.00118107628581</v>
+        <v>35.0011810762858</v>
       </c>
     </row>
     <row r="8425" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>58.02454880248244</v>
+        <v>58.02454880248243</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>35.30157889091369</v>
+        <v>35.30157889091368</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>6.073838662048649</v>
+        <v>6.073838662048648</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>18.66710119332666</v>
+        <v>18.66710119332665</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>5.962032060799346</v>
+        <v>5.962032060799345</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>19.83305501353696</v>
+        <v>19.83305501353695</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68207,7 +68207,7 @@
         <v>8483</v>
       </c>
       <c r="B8483">
-        <v>7.803983538785901</v>
+        <v>7.8039835387859</v>
       </c>
     </row>
     <row r="8484" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>32.75918763052652</v>
+        <v>32.75918763052651</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>19.15529892952873</v>
+        <v>19.15529892952872</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>7.116526803397983</v>
+        <v>7.116526803397982</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68543,7 +68543,7 @@
         <v>8525</v>
       </c>
       <c r="B8525">
-        <v>5.522572038326659</v>
+        <v>5.522572038326658</v>
       </c>
     </row>
     <row r="8526" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>7.796920526754163</v>
+        <v>7.796920526754162</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68623,7 +68623,7 @@
         <v>8535</v>
       </c>
       <c r="B8535">
-        <v>16.11562473074099</v>
+        <v>16.11562473074098</v>
       </c>
     </row>
     <row r="8536" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>81.8057982346573</v>
+        <v>81.80579823465729</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>85.13215452346357</v>
+        <v>85.13215452346356</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68831,7 +68831,7 @@
         <v>8561</v>
       </c>
       <c r="B8561">
-        <v>83.71134612803337</v>
+        <v>83.71134612803336</v>
       </c>
     </row>
     <row r="8562" spans="1:2">
@@ -68847,7 +68847,7 @@
         <v>8563</v>
       </c>
       <c r="B8563">
-        <v>79.95534769654957</v>
+        <v>79.95534769654955</v>
       </c>
     </row>
     <row r="8564" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>69.09032508025751</v>
+        <v>69.0903250802575</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68951,7 +68951,7 @@
         <v>8576</v>
       </c>
       <c r="B8576">
-        <v>98.6145945860401</v>
+        <v>98.61459458604008</v>
       </c>
     </row>
     <row r="8577" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>55.9299700891698</v>
+        <v>55.92997008916979</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>45.31376478470123</v>
+        <v>45.31376478470122</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>74.67713829025874</v>
+        <v>74.67713829025872</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69151,7 +69151,7 @@
         <v>8601</v>
       </c>
       <c r="B8601">
-        <v>51.79503080469688</v>
+        <v>51.79503080469687</v>
       </c>
     </row>
     <row r="8602" spans="1:2">
@@ -69215,7 +69215,7 @@
         <v>8609</v>
       </c>
       <c r="B8609">
-        <v>45.8386550149437</v>
+        <v>45.83865501494369</v>
       </c>
     </row>
     <row r="8610" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>74.76124967835455</v>
+        <v>74.76124967835453</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69351,7 +69351,7 @@
         <v>8626</v>
       </c>
       <c r="B8626">
-        <v>78.25436338815912</v>
+        <v>78.25436338815911</v>
       </c>
     </row>
     <row r="8627" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>55.28521380411484</v>
+        <v>55.28521380411483</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69535,7 +69535,7 @@
         <v>8649</v>
       </c>
       <c r="B8649">
-        <v>49.47918345719493</v>
+        <v>49.47918345719492</v>
       </c>
     </row>
     <row r="8650" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>26.34946025106811</v>
+        <v>26.3494602510681</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>31.355963497416</v>
+        <v>31.35596349741599</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>46.16513615201244</v>
+        <v>46.16513615201243</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>52.90577004122338</v>
+        <v>52.90577004122337</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>43.11543892370248</v>
+        <v>43.11543892370247</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>39.72958921404796</v>
+        <v>39.72958921404795</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>50.96710512047858</v>
+        <v>50.96710512047857</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>52.88027286085984</v>
+        <v>52.88027286085983</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>52.02948763562596</v>
+        <v>52.02948763562595</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -69879,7 +69879,7 @@
         <v>8692</v>
       </c>
       <c r="B8692">
-        <v>53.1375892328045</v>
+        <v>53.13758923280449</v>
       </c>
     </row>
     <row r="8693" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>68.34856228140565</v>
+        <v>68.34856228140563</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>55.56597585915241</v>
+        <v>55.5659758591524</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>61.3312693316984</v>
+        <v>61.33126933169839</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>48.93172675697554</v>
+        <v>48.93172675697553</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>62.07010142016365</v>
+        <v>62.07010142016364</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>45.91543962707297</v>
+        <v>45.91543962707296</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>71.15354519243338</v>
+        <v>71.15354519243337</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>74.34596801657142</v>
+        <v>74.3459680165714</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>86.44950884224632</v>
+        <v>86.4495088422463</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70263,7 +70263,7 @@
         <v>8740</v>
       </c>
       <c r="B8740">
-        <v>88.40663723842678</v>
+        <v>88.40663723842677</v>
       </c>
     </row>
     <row r="8741" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>75.14810344938752</v>
+        <v>75.14810344938751</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
